--- a/Python/players.xlsx
+++ b/Python/players.xlsx
@@ -49,7 +49,7 @@
     <t>ahsiao</t>
   </si>
   <si>
-    <t>05/08/1994</t>
+    <t>05/08/  1994</t>
   </si>
   <si>
     <t>02/07/1993</t>
@@ -73,10 +73,10 @@
     <t>09/08/1992</t>
   </si>
   <si>
-    <t>04/12/1993</t>
-  </si>
-  <si>
-    <t>04/03/1999</t>
+    <t>04/05/1993</t>
+  </si>
+  <si>
+    <t>04/06/1999</t>
   </si>
   <si>
     <t>05/07/1991</t>
@@ -545,10 +545,10 @@
         <v>8</v>
       </c>
       <c r="J3">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="K3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="L3">
         <v>7</v>

--- a/Python/players.xlsx
+++ b/Python/players.xlsx
@@ -49,7 +49,7 @@
     <t>ahsiao</t>
   </si>
   <si>
-    <t>05/08/  1994</t>
+    <t>05/08/1994</t>
   </si>
   <si>
     <t>02/07/1993</t>
